--- a/etapa2/ARQ1/excel_file1.xlsx
+++ b/etapa2/ARQ1/excel_file1.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,13 +425,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -439,12 +436,9 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
         <v>5</v>
       </c>
     </row>
@@ -453,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -464,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -472,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -480,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
